--- a/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intae\Documents\1_Seneca\Sem2\sft221\Group Project\SUM23-SFT221-NAA-4\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F164EB-8405-4679-AD6F-18F6404D79D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B2E67A-0923-4D0A-A3C9-C78F625C5DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1680" windowWidth="14475" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="270" windowWidth="18075" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>SFT 221</t>
   </si>
@@ -117,16 +117,10 @@
 (Distances are all different, so no change occurs)</t>
   </si>
   <si>
-    <t>Checking same limitations but different limitations</t>
-  </si>
-  <si>
     <t>Different weight limitations and same distance</t>
   </si>
   <si>
     <t>Different volume limitation and same distance</t>
-  </si>
-  <si>
-    <t>Checking if empty trucks remain the same order</t>
   </si>
   <si>
     <t>Checking Trucks with different limitations and different distances. 
@@ -204,60 +198,49 @@
 Blue, Green, Yellow</t>
   </si>
   <si>
-    <t>A null pointer is passed to the function
-     double dists[3][2] = {
-        {3.14, BLUE},
-        {3.14, GREEN},
-        {3.14, YELLOW}
-    };
-    struct Dispatch* org = nullptr;</t>
-  </si>
-  <si>
-    <t>Unchanged Array:  
-    double expectedDists[3][2] = {
-        {3.14, BLUE},
-        {3.14, GREEN},
-        {3.14, YELLOW}
-    };</t>
-  </si>
-  <si>
-    <t>The function should not cause runtime errors even with null values given as a parameter</t>
-  </si>
-  <si>
-    <t>Verify that the dists array is sorted based on limiting factors despite large distance
-	double expectedDists[3][2] = {
-		{LARGE_DISTANCE, YELLOW},
-		{LARGE_DISTANCE, GREEN},
-		{LARGE_DISTANCE, BLUE}
-	};</t>
-  </si>
-  <si>
-    <t>Ensure that the function works as expected despite large numbers and floating-point calculations</t>
-  </si>
-  <si>
-    <t>// double of large distance is handled
-const double LARGE_DISTANCE = 1e9;
-	double dists[3][2] = {
-		{LARGE_DISTANCE, BLUE},
-		{LARGE_DISTANCE, GREEN},
-		{LARGE_DISTANCE, YELLOW}
-	};
-Blue: 500.0, 20.0 {LARGE_DISTANCE}
-Green: 800.0, 24.0 {LARGE_DISTANCE}
-Yellow: 1000.0, 36.0 {LARGE_DISTANCE}</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t xml:space="preserve"> Exception Code: C0000005</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Assert failed. 
-Expected:&lt;8&gt; Actual:&lt;2&gt;</t>
+    <t>Blue: 0.0, 0.0 {0}
+Green: 0.0, 0.0 {0}
+Yellow: 0.0, 0.0 {0}</t>
+  </si>
+  <si>
+    <t>Checking if empty trucks are properly sorted even if distance is across the entire map horizontally or vertically (distance = 25)</t>
+  </si>
+  <si>
+    <t>Checking if empty trucks are properly sorted even if distance is the maximum horizontal distance across the map (hypoteneus of triangle with side lengths of 25 = 35.35)</t>
+  </si>
+  <si>
+    <t>Checking if empty trucks remain the same order when all trucks are empty and distances are 0.</t>
+  </si>
+  <si>
+    <t>Checking same limitations but different distances</t>
+  </si>
+  <si>
+    <t>Checking if trucks remain the same order when all trucks are full</t>
+  </si>
+  <si>
+    <t>Blue: 500.0, 10.0 {35.35}
+Green: 625.0, 10.0 {35.35}
+Yellow: 800.0, 12.0 {35.35}</t>
+  </si>
+  <si>
+    <t>Blue: 500.0, 10.0 {25}
+Green: 625.0, 10.0 {25}
+Yellow: 800.0, 12.0 {25}</t>
+  </si>
+  <si>
+    <t>Blue: 0.0, 10.0 {35.35}
+Green: 0.0, 10.0 {35.35}
+Yellow: 800.0, 12.0 {35.35}</t>
+  </si>
+  <si>
+    <t>Checking if only a single truck has packages, that truck is prioritized.</t>
+  </si>
+  <si>
+    <t>Expected:
+Yellow, Blue, Green</t>
   </si>
 </sst>
 </file>
@@ -296,13 +279,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,12 +315,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -504,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,10 +523,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,116 +818,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>4</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -959,17 +935,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -992,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,9 +988,9 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1024,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -1033,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1053,10 +1029,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1067,16 +1043,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1087,16 +1063,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1107,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1127,16 +1103,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1266,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,9 +1262,9 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1298,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -1307,36 +1283,33 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
       <c r="G3" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1344,26 +1317,55 @@
         <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
@@ -1491,12 +1493,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,15 +1670,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1704,18 +1715,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intae\Documents\1_Seneca\Sem2\sft221\Group Project\SUM23-SFT221-NAA-4\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B2E67A-0923-4D0A-A3C9-C78F625C5DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB30E8D-7BA3-4866-A05E-7BB26232D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="270" windowWidth="18075" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="690" windowWidth="14475" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>SFT 221</t>
   </si>
@@ -241,6 +241,33 @@
   <si>
     <t>Expected:
 Yellow, Blue, Green</t>
+  </si>
+  <si>
+    <t>BB_sortByLimitingFactor1</t>
+  </si>
+  <si>
+    <t>BB_sortByLimitingFactor2</t>
+  </si>
+  <si>
+    <t>BB_sortByLimitingFactor3</t>
+  </si>
+  <si>
+    <t>BB_sortByLimitingFactor4</t>
+  </si>
+  <si>
+    <t>BB_sortByLimitingFactor5</t>
+  </si>
+  <si>
+    <t>WB_SortByLimitingFactor1</t>
+  </si>
+  <si>
+    <t>WB_SortByLimitingFactor2</t>
+  </si>
+  <si>
+    <t>WB_SortByLimitingFactor3</t>
+  </si>
+  <si>
+    <t>WB_SortByLimitingFactor4</t>
   </si>
 </sst>
 </file>
@@ -483,6 +510,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,9 +553,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,116 +845,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>4</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -935,17 +962,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -968,13 +995,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="65.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="56.140625" customWidth="1"/>
@@ -988,9 +1016,9 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1016,8 +1044,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
+      <c r="A3" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
@@ -1036,8 +1064,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
+      <c r="A4" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
@@ -1056,8 +1084,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>3</v>
+      <c r="A5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
@@ -1076,8 +1104,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>4</v>
+      <c r="A6" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
@@ -1096,8 +1124,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5</v>
+      <c r="A7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
@@ -1242,13 +1270,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="65.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="56.140625" customWidth="1"/>
@@ -1262,9 +1291,9 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1290,8 +1319,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1305,13 +1334,13 @@
       <c r="E3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
+      <c r="A4" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1326,13 +1355,13 @@
         <v>38</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
+      <c r="A5" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1346,13 +1375,13 @@
       <c r="E5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
+      <c r="A6" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1493,9 +1522,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1670,27 +1702,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1715,9 +1735,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intae\Documents\1_Seneca\Sem2\sft221\Group Project\SUM23-SFT221-NAA-4\Documents\Testing\TestsDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irish\Documents\SUM23-SFT221-NAA-4\Documents\Testing\TestsDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB30E8D-7BA3-4866-A05E-7BB26232D675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA409A-4E82-4CA0-BA75-97A9DE22F65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="690" windowWidth="14475" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
   <si>
     <t>SFT 221</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>WB_SortByLimitingFactor4</t>
+  </si>
+  <si>
+    <t>MATCHES EXPECTED OUTPUT</t>
   </si>
 </sst>
 </file>
@@ -306,6 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -338,8 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -464,10 +467,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -507,11 +511,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,8 +560,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,140 +853,140 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="29">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -995,266 +1009,281 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B529C7-E270-4893-96A7-E1315BD69EEA}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="3"/>
     </row>
   </sheetData>
@@ -1270,46 +1299,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="56.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>30</v>
@@ -1318,199 +1347,213 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="3"/>
     </row>
   </sheetData>

--- a/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
+++ b/Documents/Testing/TestsDocuments/BB+WB_sortByLimitingFactor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irish\Documents\SUM23-SFT221-NAA-4\Documents\Testing\TestsDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/intaechung/Documents/Seneca/Semester 2/sft221/SUM23-SFT221-NAA-4/Documents/Testing/TestsDocuments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA409A-4E82-4CA0-BA75-97A9DE22F65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF34D044-014D-B243-9DFC-2276E849437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5580" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -520,6 +520,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,11 +566,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -849,144 +855,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="31">
         <v>4</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:9" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1013,28 +1019,28 @@
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="65.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="56.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="19"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -1076,11 +1082,11 @@
       <c r="F3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
@@ -1099,11 +1105,11 @@
       <c r="F4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>50</v>
       </c>
@@ -1122,11 +1128,11 @@
       <c r="F5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>51</v>
       </c>
@@ -1145,11 +1151,11 @@
       <c r="F6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
@@ -1168,122 +1174,122 @@
       <c r="F7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="3"/>
     </row>
   </sheetData>
@@ -1299,32 +1305,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DBEBE5-E65B-48FE-ACB2-E1CF3882866A}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="96" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="65.33203125" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="56.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="5" max="5" width="56.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -1366,11 +1372,11 @@
       <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -1389,11 +1395,11 @@
       <c r="F4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
@@ -1412,11 +1418,11 @@
       <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>56</v>
       </c>
@@ -1435,125 +1441,125 @@
       <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E45" s="3"/>
     </row>
   </sheetData>
@@ -1565,12 +1571,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1745,15 +1748,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1778,18 +1793,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D20CED7A-A184-4DAD-98D0-D68B5D737C5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A445DA8-61DA-4B15-A75B-C715E0A15404}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7db3b190-d1cf-4882-bee6-3064ce691739"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7e7c8aa9-4be2-48a6-a0f7-80013db2e73b"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>